--- a/0019-The-Sentinel-Stack/Manual Testing & Documents/Test Cases StyleMate.xlsx
+++ b/0019-The-Sentinel-Stack/Manual Testing & Documents/Test Cases StyleMate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RKC-Nagaur\Downloads\StyleMate Manual Testing &amp; Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing &amp; Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBCF81D-15F2-4745-B93E-E33D447B4245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F766BE4-F0CB-4F98-9698-270C3EDE70F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>1. Navigate to the website 2. Wait for page to load completely 3. Verify page title is displayed</t>
+  </si>
+  <si>
+    <t>TC_UAM_006_06</t>
+  </si>
+  <si>
+    <t>Access and Manage UserAaccount</t>
+  </si>
+  <si>
+    <t>1. Navigate to login page 2. Log into the account 3. Click on the user profile icon 4. Verify access and management</t>
+  </si>
+  <si>
+    <t>Account accessed and can be managed without any obstacles</t>
   </si>
 </sst>
 </file>
@@ -948,10 +960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -961,8 +973,8 @@
     <col min="3" max="3" width="41.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="79.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="59" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1644,21 +1656,44 @@
         <v>106</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="E39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>5</v>
       </c>
     </row>
